--- a/docs/Leo.Audience.xlsx
+++ b/docs/Leo.Audience.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonardo.urbiola_fox\Desktop\R Studio\Audience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B15788-B274-4270-9C49-1243315E9070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E142DC-13BF-4C4F-9350-EF08BACE1E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="973" activeTab="11" xr2:uid="{BE3E1133-932D-45AD-81A3-C70A57B1EBCF}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="973" activeTab="3" xr2:uid="{BE3E1133-932D-45AD-81A3-C70A57B1EBCF}"/>
   </bookViews>
   <sheets>
     <sheet name="MANCHESTER" sheetId="23" r:id="rId1"/>
@@ -718,7 +718,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6654523701986985E-2"/>
+          <c:y val="0.11545754155818855"/>
+          <c:w val="0.91061090557695412"/>
+          <c:h val="0.72534575909340127"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1142,6 +1152,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41704002708148552"/>
+          <c:y val="0.90431654658939542"/>
+          <c:w val="0.16554170684722794"/>
+          <c:h val="6.1005787029545559E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19791,6 +19811,21 @@
               </a:rPr>
               <a:t> Social Media</a:t>
             </a:r>
+            <a:br>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2022</a:t>
+            </a:r>
             <a:endParaRPr lang="en-US">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -19799,6 +19834,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33815386631962324"/>
+          <c:y val="1.1497270529870271E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19933,25 +19976,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Youtube</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Facebook</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>Instagram</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Tik Tok </c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Twitter</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Snapchat</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Instagram</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Youtube</c:v>
+                  <c:v>Pinterest</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Pinterest</c:v>
+                  <c:v>Twitter</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19963,25 +20006,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20165,9 +20208,32 @@
                   </a:rPr>
                   <a:t>dAILY TIME SPEND</a:t>
                 </a:r>
+                <a:br>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                </a:br>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>(Minutes)</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5854141894569955E-2"/>
+              <c:y val="0.36898362317922162"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -41224,15 +41290,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>411481</xdr:colOff>
+      <xdr:colOff>388621</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>312421</xdr:colOff>
+      <xdr:colOff>289561</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>7839</xdr:rowOff>
+      <xdr:rowOff>219</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -41261,7 +41327,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3840481" y="3147060"/>
+          <a:off x="3817621" y="3139440"/>
           <a:ext cx="2339340" cy="2530059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -44599,15 +44665,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>521971</xdr:colOff>
+      <xdr:colOff>483704</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>162877</xdr:rowOff>
+      <xdr:rowOff>149625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:colOff>149501</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>159026</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -44641,9 +44707,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>430696</xdr:colOff>
+      <xdr:colOff>421806</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>26451</xdr:rowOff>
+      <xdr:rowOff>35341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -44693,7 +44759,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>149087</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>120106</xdr:rowOff>
+      <xdr:rowOff>117566</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -44733,16 +44799,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314739</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>140295</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219269</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>67502</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>141509</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>593393</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>97169</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -44771,8 +44837,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8017565" y="2691338"/>
-          <a:ext cx="365676" cy="365649"/>
+          <a:off x="9683530" y="3375868"/>
+          <a:ext cx="374124" cy="365649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -44784,15 +44850,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>43319</xdr:colOff>
+      <xdr:colOff>73223</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>175840</xdr:rowOff>
+      <xdr:rowOff>159026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>405185</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>178959</xdr:rowOff>
+      <xdr:colOff>453832</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>276</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -44821,8 +44887,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8359058" y="8011188"/>
-          <a:ext cx="361866" cy="367554"/>
+          <a:off x="8349206" y="8136835"/>
+          <a:ext cx="371719" cy="384368"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -44833,16 +44899,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>549355</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>175312</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>277550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>92268</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>522328</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>162284</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -44871,8 +44937,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8865094" y="2915478"/>
-          <a:ext cx="341108" cy="274486"/>
+          <a:off x="12069138" y="5000819"/>
+          <a:ext cx="347016" cy="263552"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -44890,9 +44956,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>410073</xdr:colOff>
+      <xdr:colOff>416423</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>133019</xdr:rowOff>
+      <xdr:rowOff>120319</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -44933,16 +44999,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347869</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>107012</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>59304</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>70730</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>68665</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>389225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -44971,8 +45037,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10502347" y="3022490"/>
-          <a:ext cx="335774" cy="326088"/>
+          <a:off x="8916174" y="3321768"/>
+          <a:ext cx="329921" cy="326088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -44983,16 +45049,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>121004</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>93015</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>394110</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>154693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>488674</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>91508</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>136609</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>153185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -45021,8 +45087,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9662569" y="2826276"/>
-          <a:ext cx="367670" cy="362928"/>
+          <a:off x="10465762" y="3799041"/>
+          <a:ext cx="349890" cy="362927"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -45034,15 +45100,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>309601</xdr:colOff>
+      <xdr:colOff>329479</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>22281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>70073</xdr:colOff>
+      <xdr:colOff>79791</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>16964</xdr:rowOff>
+      <xdr:rowOff>4264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -45071,85 +45137,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11076992" y="8950933"/>
-          <a:ext cx="373385" cy="359118"/>
+          <a:off x="11043862" y="9113272"/>
+          <a:ext cx="370072" cy="365744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>570838</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>39270</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>323022</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9939</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB761400-F583-2E91-0228-A196F8051AEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="18891" r="19205"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11951142" y="8967922"/>
-          <a:ext cx="365097" cy="335104"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="76200" dist="38100" dir="7800000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="40000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="contrasting" dir="t">
-            <a:rot lat="0" lon="0" rev="4200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d prstMaterial="plastic">
-          <a:bevelT w="381000" h="114300" prst="relaxedInset"/>
-          <a:contourClr>
-            <a:srgbClr val="969696"/>
-          </a:contourClr>
-        </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -45163,7 +45156,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>65015</xdr:colOff>
+      <xdr:colOff>72635</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>1161</xdr:rowOff>
     </xdr:to>
@@ -45181,7 +45174,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -45204,6 +45197,232 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>605016</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>338372</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1550A972-DF00-0D33-D790-88AE0E11C9BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="20707" r="20430"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11284059" y="4713720"/>
+          <a:ext cx="340748" cy="327350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>33129</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>377687</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>35526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B6F309D-C397-4D2B-AC99-6E8A658A4660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="20707" r="20430"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11966712" y="9157252"/>
+          <a:ext cx="344558" cy="328896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>536713</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>106017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>397565</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>172277</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E19E605-39CD-925A-8700-5268AB9466D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8812696" y="11237843"/>
+          <a:ext cx="1689652" cy="251791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Age Group </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447263</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>56322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>89454</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5449F06E-B623-4922-B712-3711191FE93E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4956316" y="8753061"/>
+          <a:ext cx="1689652" cy="251791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050"/>
+            <a:t>Population</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -45211,12 +45430,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.12612</cdr:x>
-      <cdr:y>0.04607</cdr:y>
+      <cdr:x>0.26947</cdr:x>
+      <cdr:y>0.16296</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.18469</cdr:x>
-      <cdr:y>0.12985</cdr:y>
+      <cdr:x>0.32805</cdr:x>
+      <cdr:y>0.24674</cdr:y>
     </cdr:to>
     <cdr:pic>
       <cdr:nvPicPr>
@@ -45245,8 +45464,8 @@
       </cdr:blipFill>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="812800" y="199887"/>
-          <a:ext cx="377522" cy="363524"/>
+          <a:off x="1719981" y="706846"/>
+          <a:ext cx="373890" cy="363417"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -45256,12 +45475,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.75819</cdr:x>
-      <cdr:y>0.3418</cdr:y>
+      <cdr:x>0.14465</cdr:x>
+      <cdr:y>0.08774</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.81994</cdr:x>
-      <cdr:y>0.40726</cdr:y>
+      <cdr:x>0.20641</cdr:x>
+      <cdr:y>0.15321</cdr:y>
     </cdr:to>
     <cdr:pic>
       <cdr:nvPicPr>
@@ -45289,80 +45508,12 @@
       </cdr:blipFill>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4887844" y="1483691"/>
-          <a:ext cx="398149" cy="284176"/>
+          <a:off x="923263" y="380601"/>
+          <a:ext cx="394202" cy="283969"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.88409</cdr:x>
-      <cdr:y>0.44293</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.94132</cdr:x>
-      <cdr:y>0.52056</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="8" name="Picture 7">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB761400-F583-2E91-0228-A196F8051AEF}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill rotWithShape="1">
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" l="18891" r="19205"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5699539" y="1922670"/>
-          <a:ext cx="368907" cy="337009"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:outerShdw blurRad="76200" dist="38100" dir="7800000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="40000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="contrasting" dir="t">
-            <a:rot lat="0" lon="0" rev="4200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prstMaterial="plastic">
-          <a:bevelT w="381000" h="114300" prst="relaxedInset"/>
-          <a:contourClr>
-            <a:srgbClr val="969696"/>
-          </a:contourClr>
-        </a:sp3d>
       </cdr:spPr>
     </cdr:pic>
   </cdr:relSizeAnchor>
@@ -47132,7 +47283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AA460F-B9E2-42C2-A406-45DA4D7BB7BB}">
   <dimension ref="A3:X45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
@@ -47897,8 +48048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082AA96D-5CE5-4DAA-8B61-0A062EBC0EFC}">
   <dimension ref="A20:T56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48820,8 +48971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322FEB9F-4818-4BA5-8377-4D138652EDB4}">
   <dimension ref="F11:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48839,58 +48990,58 @@
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G13">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G16">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G17">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G18">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.3">
@@ -48987,8 +49138,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F43:H49">
-    <sortCondition descending="1" ref="G43:G49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F12:G18">
+    <sortCondition descending="1" ref="G12:G18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
